--- a/public/file/template resi manual.xlsx
+++ b/public/file/template resi manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\GitKraken\suryantara\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\git\suryantara\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>faktur</t>
+    <t>no_resi</t>
+  </si>
+  <si>
+    <t>id_karyawan</t>
   </si>
 </sst>
 </file>
@@ -345,15 +348,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
